--- a/Material Complementar/tecnicas-amostragem-aula-01-exemplo.xlsx
+++ b/Material Complementar/tecnicas-amostragem-aula-01-exemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Le Bomb\kgalois\FMU\2022.2\2022.2-fmu-tecnicas-amostragem\Material Complementar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E9806-643D-4CEC-B98F-A519A4F53E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96C93B-B69C-400B-A736-7574F7B05DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D0660C-533F-4145-9B52-01E46C6E98BE}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +80,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,14 +115,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,16 +255,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}" name="Tabela1" displayName="Tabela1" ref="A1:G4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}" name="Tabela1" displayName="Tabela1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:G4" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B0D14DBB-6297-4C96-B31B-E2DD46B0DE21}" name="Unidade"/>
-    <tableColumn id="2" xr3:uid="{0B584EEC-E301-4AE2-916C-C4FE8D02FAB0}" name="Nome do Chefe"/>
-    <tableColumn id="3" xr3:uid="{3D1C8EE9-7A38-430E-AFA2-501239597FB0}" name="Sexo"/>
-    <tableColumn id="4" xr3:uid="{65030255-9836-4713-A2D5-B09F43544639}" name="Idade"/>
-    <tableColumn id="5" xr3:uid="{AD67BE39-CA7D-4ED0-9A77-C347EFB258A4}" name="Fumante"/>
-    <tableColumn id="6" xr3:uid="{D7858743-E693-49FF-BA23-72D5ACCA21A0}" name="Renda Bruta Familiar"/>
-    <tableColumn id="7" xr3:uid="{2CD6F1DF-FF46-4E87-93FD-BE9096C89D06}" name="Número de Trabalhadores"/>
+    <tableColumn id="1" xr3:uid="{B0D14DBB-6297-4C96-B31B-E2DD46B0DE21}" name="Unidade" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0B584EEC-E301-4AE2-916C-C4FE8D02FAB0}" name="Nome do Chefe" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3D1C8EE9-7A38-430E-AFA2-501239597FB0}" name="Sexo" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{65030255-9836-4713-A2D5-B09F43544639}" name="Idade" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AD67BE39-CA7D-4ED0-9A77-C347EFB258A4}" name="Fumante" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D7858743-E693-49FF-BA23-72D5ACCA21A0}" name="Renda Bruta Familiar" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2CD6F1DF-FF46-4E87-93FD-BE9096C89D06}" name="Número de Trabalhadores" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,112 +570,115 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Material Complementar/tecnicas-amostragem-aula-01-exemplo.xlsx
+++ b/Material Complementar/tecnicas-amostragem-aula-01-exemplo.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Le Bomb\kgalois\FMU\2022.2\2022.2-fmu-tecnicas-amostragem\Material Complementar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96C93B-B69C-400B-A736-7574F7B05DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C0448-D941-48E0-B034-F3DD7BFE6293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D0660C-533F-4145-9B52-01E46C6E98BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E5D0660C-533F-4145-9B52-01E46C6E98BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Unidade</t>
   </si>
@@ -65,13 +68,79 @@
   </si>
   <si>
     <t>Ema</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Valor 1</t>
+  </si>
+  <si>
+    <t>Valor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h </t>
+  </si>
+  <si>
+    <t>P(h)</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>E[f]</t>
+  </si>
+  <si>
+    <t>E[r]</t>
+  </si>
+  <si>
+    <t>Var[f]</t>
+  </si>
+  <si>
+    <t>Var[r]</t>
+  </si>
+  <si>
+    <t>Cov[f,r]</t>
+  </si>
+  <si>
+    <t>Cor[f,r]</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>gama</t>
+  </si>
+  <si>
+    <t>z-gama</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Tamanho da Amostra</t>
+  </si>
+  <si>
+    <t>IC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +163,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,19 +193,286 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -255,16 +604,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}" name="Tabela1" displayName="Tabela1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}" name="Tabela1" displayName="Tabela1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:G4" xr:uid="{4D19554A-7CF9-44A6-AA5A-610AAB2888A6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B0D14DBB-6297-4C96-B31B-E2DD46B0DE21}" name="Unidade" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0B584EEC-E301-4AE2-916C-C4FE8D02FAB0}" name="Nome do Chefe" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3D1C8EE9-7A38-430E-AFA2-501239597FB0}" name="Sexo" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{65030255-9836-4713-A2D5-B09F43544639}" name="Idade" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{AD67BE39-CA7D-4ED0-9A77-C347EFB258A4}" name="Fumante" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D7858743-E693-49FF-BA23-72D5ACCA21A0}" name="Renda Bruta Familiar" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2CD6F1DF-FF46-4E87-93FD-BE9096C89D06}" name="Número de Trabalhadores" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B0D14DBB-6297-4C96-B31B-E2DD46B0DE21}" name="Unidade" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{0B584EEC-E301-4AE2-916C-C4FE8D02FAB0}" name="Nome do Chefe" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{3D1C8EE9-7A38-430E-AFA2-501239597FB0}" name="Sexo" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{65030255-9836-4713-A2D5-B09F43544639}" name="Idade" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{AD67BE39-CA7D-4ED0-9A77-C347EFB258A4}" name="Fumante" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D7858743-E693-49FF-BA23-72D5ACCA21A0}" name="Renda Bruta Familiar" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{2CD6F1DF-FF46-4E87-93FD-BE9096C89D06}" name="Número de Trabalhadores" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E147095D-43E5-40DC-83C4-609F05E66AE4}" name="Tabela2" displayName="Tabela2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:D10" xr:uid="{E147095D-43E5-40DC-83C4-609F05E66AE4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="A1:A10"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4B5112EF-9326-4197-9C0B-4F7AFAEFB8E1}" name="s" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3E66A07F-B2ED-48C4-8FA9-EF6FE7EDC42F}" name="Valor 1" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{50309DFC-E200-45BB-ACD2-B1CBF33F6E93}" name="Valor 2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CFDD4EFD-0921-4B82-B4BC-ECBB11311897}" name="f" dataDxfId="3">
+      <calculatedColumnFormula>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E14633C7-CE8A-4ABA-B32B-6CD733B7B54F}" name="Tabela3" displayName="Tabela3" ref="F1:I10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="F1:I10" xr:uid="{E14633C7-CE8A-4ABA-B32B-6CD733B7B54F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A081FED6-55D5-46CA-BF2D-7A4CA3DDE102}" name="s" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BA5E0860-557B-42DC-B924-2EE55BD6FA23}" name="Valor 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F4E12D13-FFD7-4417-A851-A97E751EAE79}" name="Valor 2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{53D90328-255D-4B3E-8584-E28DFF103E44}" name="t" dataDxfId="2">
+      <calculatedColumnFormula>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5DB0923D-16AB-4DDB-B226-2BFFB3D2B2F4}" name="Tabela4" displayName="Tabela4" ref="K1:L10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="K1:L10" xr:uid="{5DB0923D-16AB-4DDB-B226-2BFFB3D2B2F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:L10">
+    <sortCondition ref="L1:L10"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C57D6790-06F4-4968-BB82-4FAFE1927A50}" name="s" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EE81AA83-F061-4A99-B49F-B2A462C9E536}" name="r" dataDxfId="1">
+      <calculatedColumnFormula>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B43382-2B45-440F-8093-85D827419B8E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -686,4 +1084,927 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E654AAAE-715C-4419-886F-B1380CF76161}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3">
+        <f>AVERAGE(A1:A30)</f>
+        <v>3.4666666666666668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <f>_xlfn.VAR.S(A1:A30)</f>
+        <v>1.4988505747126428</v>
+      </c>
+      <c r="E2" s="3">
+        <f>_xlfn.VAR.P(A1:A30)</f>
+        <v>1.4488888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>_xlfn.STDEV.S(A1:A30)</f>
+        <v>1.2242755305537405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCBF2AD-8DFA-445A-82F6-2C2170FD00FD}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1">
+        <f>AVERAGE(Tabela2[f])</f>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1">
+        <f>AVERAGE(Tabela4[r])</f>
+        <v>10.088888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>10.5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1">
+        <f>_xlfn.VAR.S(Tabela2[f])</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1">
+        <f>_xlfn.VAR.S(Tabela4[r])</f>
+        <v>0.73861111111111122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>10.5</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1">
+        <f>_xlfn.COVARIANCE.S(Tabela2[f],Tabela4[r])</f>
+        <v>-2.1583333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1">
+        <f>CORREL(Tabela2[f],Tabela4[r])</f>
+        <v>-0.55466871267769025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(Tabela2[[#This Row],[Valor 1]]+Tabela2[[#This Row],[Valor 2]])/2</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>(Tabela3[[#This Row],[Valor 1]]+Tabela3[[#This Row],[Valor 2]])/2</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1">
+        <f>Tabela2[[#This Row],[f]]/Tabela3[[#This Row],[t]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C15" s="1">
+        <f>A15*B15</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D15" s="1">
+        <f>(A15-$C$20)^2*B15</f>
+        <v>5.9753086419753059</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M15" s="1">
+        <f>L15*K15</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="N15" s="1">
+        <f>(K15-$M$22)^2*L15</f>
+        <v>0.88499314128943796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C19" si="0">A16*B16</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D19" si="1">(A16-$C$20)^2*B16</f>
+        <v>4.1728395061728367</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="L16" s="1">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:M21" si="2">L16*K16</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="N16" s="1">
+        <f>(K16-$M$22)^2*L16</f>
+        <v>0.82109739368998647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19753086419753049</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ref="N16:N21" si="3">(K17-$M$22)^2*L17</f>
+        <v>0.19425240054869702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6172839506172848</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="L18" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7956104252400706E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2592592592592631</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.153635116598084E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C20" s="1">
+        <f>SUM(C15:C19)</f>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(D15:D19)</f>
+        <v>18.222222222222221</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.62554183813443021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K21" s="1">
+        <v>16</v>
+      </c>
+      <c r="L21" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5819067215363503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L22" s="1">
+        <f>SUM(L15:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <f>SUM(M15:M21)</f>
+        <v>10.322222222222223</v>
+      </c>
+      <c r="N22" s="1">
+        <f>SUM(N15:N21)/9</f>
+        <v>0.68636488340192037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D605B6-E8DD-4B0B-A06C-0D893C882480}">
+  <dimension ref="D2:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <f>E2/((E3/E5)^2)</f>
+        <v>79.045267489711918</v>
+      </c>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1">
+        <f>E5*E2/SQRT(E6)</f>
+        <v>0.53676810635506278</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>